--- a/t/data/stock/seedlot_inventory_amount.xlsx
+++ b/t/data/stock/seedlot_inventory_amount.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t xml:space="preserve">box_id</t>
   </si>
@@ -37,25 +37,16 @@
     <t xml:space="preserve">amount</t>
   </si>
   <si>
-    <t xml:space="preserve">box1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_accession4_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-04-01-02-04-34</t>
+    <t xml:space="preserve">box2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_accession3_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-04-01-02-04-33</t>
   </si>
   <si>
     <t xml:space="preserve">titima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">box2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_accession3_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-04-01-02-04-33</t>
   </si>
   <si>
     <t xml:space="preserve">test_accession2_001</t>
@@ -76,6 +67,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -157,13 +149,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.59"/>
@@ -203,40 +195,23 @@
         <v>8</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="0" t="n">
         <v>120</v>
       </c>
     </row>
